--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillkuznecov/Documents/Документы — MacBook Air — Кирилл/data_science_learning/code/LME/parser_beta/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillkuznecov/Documents/Документы — MacBook Air — Кирилл/macro_parser/LME/parser_beta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569197E-B5F4-EF4A-8960-C98DA9499207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE7632-856B-BC46-ACC4-D0ACDA81E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:G405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9582,6 +9582,190 @@
         <v>2550</v>
       </c>
     </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C398">
+        <v>2217</v>
+      </c>
+      <c r="D398">
+        <v>8720.5</v>
+      </c>
+      <c r="E398">
+        <v>2152</v>
+      </c>
+      <c r="F398">
+        <v>22355</v>
+      </c>
+      <c r="G398">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C399">
+        <v>2176.5</v>
+      </c>
+      <c r="D399">
+        <v>8545</v>
+      </c>
+      <c r="E399">
+        <v>2144</v>
+      </c>
+      <c r="F399">
+        <v>21700</v>
+      </c>
+      <c r="G399">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C400">
+        <v>2147</v>
+      </c>
+      <c r="D400">
+        <v>8472</v>
+      </c>
+      <c r="E400">
+        <v>2139.5</v>
+      </c>
+      <c r="F400">
+        <v>21300</v>
+      </c>
+      <c r="G400">
+        <v>2462.5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C401">
+        <v>2166</v>
+      </c>
+      <c r="D401">
+        <v>8450.5</v>
+      </c>
+      <c r="E401">
+        <v>2128</v>
+      </c>
+      <c r="F401">
+        <v>20980</v>
+      </c>
+      <c r="G401">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>45145</v>
+      </c>
+      <c r="C402">
+        <v>2178</v>
+      </c>
+      <c r="D402">
+        <v>8495</v>
+      </c>
+      <c r="E402">
+        <v>2143</v>
+      </c>
+      <c r="F402">
+        <v>21250</v>
+      </c>
+      <c r="G402">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C403">
+        <v>2143</v>
+      </c>
+      <c r="D403">
+        <v>8276</v>
+      </c>
+      <c r="E403">
+        <v>2110</v>
+      </c>
+      <c r="F403">
+        <v>20650</v>
+      </c>
+      <c r="G403">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C404">
+        <v>2153</v>
+      </c>
+      <c r="D404">
+        <v>8395</v>
+      </c>
+      <c r="E404">
+        <v>2119</v>
+      </c>
+      <c r="F404">
+        <v>20450</v>
+      </c>
+      <c r="G404">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C405">
+        <v>2161.5</v>
+      </c>
+      <c r="D405">
+        <v>8423.5</v>
+      </c>
+      <c r="E405">
+        <v>2122</v>
+      </c>
+      <c r="F405">
+        <v>20225</v>
+      </c>
+      <c r="G405">
+        <v>2477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillkuznecov/Documents/Документы — MacBook Air — Кирилл/macro_parser/LME/parser_beta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE7632-856B-BC46-ACC4-D0ACDA81E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DBDDA-ECEE-1C42-8F1C-B24A6632210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:G405"/>
+      <selection activeCell="K407" sqref="K407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9766,6 +9766,98 @@
         <v>2477</v>
       </c>
     </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C406">
+        <v>2127</v>
+      </c>
+      <c r="D406">
+        <v>8242</v>
+      </c>
+      <c r="E406">
+        <v>2118</v>
+      </c>
+      <c r="F406">
+        <v>20000</v>
+      </c>
+      <c r="G406">
+        <v>2415.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C407">
+        <v>2096</v>
+      </c>
+      <c r="D407">
+        <v>8242</v>
+      </c>
+      <c r="E407">
+        <v>2088</v>
+      </c>
+      <c r="F407">
+        <v>19825</v>
+      </c>
+      <c r="G407">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C408">
+        <v>2085.5</v>
+      </c>
+      <c r="D408">
+        <v>8126.5</v>
+      </c>
+      <c r="E408">
+        <v>2099</v>
+      </c>
+      <c r="F408">
+        <v>19685</v>
+      </c>
+      <c r="G408">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C409">
+        <v>2089</v>
+      </c>
+      <c r="D409">
+        <v>8132</v>
+      </c>
+      <c r="E409">
+        <v>2123</v>
+      </c>
+      <c r="F409">
+        <v>19850</v>
+      </c>
+      <c r="G409">
+        <v>2282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G467"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11187,6 +11187,29 @@
         <v>2538</v>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2258.5</v>
+      </c>
+      <c r="D468" t="n">
+        <v>8088</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2201</v>
+      </c>
+      <c r="F468" t="n">
+        <v>17865</v>
+      </c>
+      <c r="G468" t="n">
+        <v>2604.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11210,6 +11210,29 @@
         <v>2604.5</v>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2228</v>
+      </c>
+      <c r="D469" t="n">
+        <v>8030.5</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2181.5</v>
+      </c>
+      <c r="F469" t="n">
+        <v>17650</v>
+      </c>
+      <c r="G469" t="n">
+        <v>2592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G469"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11233,6 +11233,29 @@
         <v>2592</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="D470" t="n">
+        <v>8006</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F470" t="n">
+        <v>17170</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11256,6 +11256,29 @@
         <v>2584</v>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="D471" t="n">
+        <v>8014.5</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2176</v>
+      </c>
+      <c r="F471" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G471" t="n">
+        <v>2538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11279,6 +11279,29 @@
         <v>2538</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2194</v>
+      </c>
+      <c r="D472" t="n">
+        <v>8081</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2159.5</v>
+      </c>
+      <c r="F472" t="n">
+        <v>17005</v>
+      </c>
+      <c r="G472" t="n">
+        <v>2539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G472"/>
+  <dimension ref="A1:G473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11302,6 +11302,29 @@
         <v>2539</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D473" t="n">
+        <v>8169</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2226.5</v>
+      </c>
+      <c r="F473" t="n">
+        <v>17155</v>
+      </c>
+      <c r="G473" t="n">
+        <v>2647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -158,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G474"/>
+  <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D474" activeCellId="0" sqref="D474"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A465" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E479" activeCellId="0" sqref="E479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11068,6 +11068,29 @@
         <v>2573</v>
       </c>
     </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C475" s="0" t="n">
+        <v>2165</v>
+      </c>
+      <c r="D475" s="0" t="n">
+        <v>8141</v>
+      </c>
+      <c r="E475" s="0" t="n">
+        <v>2281</v>
+      </c>
+      <c r="F475" s="0" t="n">
+        <v>16780</v>
+      </c>
+      <c r="G475" s="0" t="n">
+        <v>2569</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11394,6 +11394,29 @@
         <v>2563</v>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C477" t="n">
+        <v>2201.5</v>
+      </c>
+      <c r="D477" t="n">
+        <v>8324</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2265.5</v>
+      </c>
+      <c r="F477" t="n">
+        <v>16560</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2537.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G482"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11532,6 +11532,29 @@
         <v>2530</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2178</v>
+      </c>
+      <c r="D483" t="n">
+        <v>8384</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2118</v>
+      </c>
+      <c r="F483" t="n">
+        <v>16660</v>
+      </c>
+      <c r="G483" t="n">
+        <v>2508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11601,6 +11601,29 @@
         <v>2465.5</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C486" t="n">
+        <v>2148.5</v>
+      </c>
+      <c r="D486" t="n">
+        <v>8417</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2088</v>
+      </c>
+      <c r="F486" t="n">
+        <v>16350</v>
+      </c>
+      <c r="G486" t="n">
+        <v>2471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G486"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11624,6 +11624,29 @@
         <v>2471</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C487" t="n">
+        <v>2121.5</v>
+      </c>
+      <c r="D487" t="n">
+        <v>8259</v>
+      </c>
+      <c r="E487" t="n">
+        <v>2038</v>
+      </c>
+      <c r="F487" t="n">
+        <v>16060</v>
+      </c>
+      <c r="G487" t="n">
+        <v>2421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -158,13 +158,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G488"/>
+  <dimension ref="A1:G489"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A478" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G491" activeCellId="0" sqref="G491"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A479" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B489" activeCellId="0" sqref="B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -11385,6 +11388,29 @@
       </c>
       <c r="G488" s="0" t="n">
         <v>2432</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C489" s="0" t="n">
+        <v>2099</v>
+      </c>
+      <c r="D489" s="0" t="n">
+        <v>8221</v>
+      </c>
+      <c r="E489" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F489" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G489" s="0" t="n">
+        <v>2411.5</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -158,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G489"/>
+  <dimension ref="A1:G490"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A479" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B489" activeCellId="0" sqref="B489"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A480" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E493" activeCellId="0" sqref="E493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11413,6 +11413,29 @@
         <v>2411.5</v>
       </c>
     </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C490" s="0" t="n">
+        <v>2111</v>
+      </c>
+      <c r="D490" s="0" t="n">
+        <v>8348</v>
+      </c>
+      <c r="E490" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F490" s="0" t="n">
+        <v>16605</v>
+      </c>
+      <c r="G490" s="0" t="n">
+        <v>2409</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -158,16 +158,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G492"/>
+  <dimension ref="A1:G493"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A482" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B492" activeCellId="0" sqref="B492"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A483" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I496" activeCellId="0" sqref="I496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -11480,6 +11477,29 @@
       </c>
       <c r="G492" s="0" t="n">
         <v>2437</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C493" s="0" t="n">
+        <v>2083</v>
+      </c>
+      <c r="D493" s="0" t="n">
+        <v>8205</v>
+      </c>
+      <c r="E493" s="0" t="n">
+        <v>2011.5</v>
+      </c>
+      <c r="F493" s="0" t="n">
+        <v>16100</v>
+      </c>
+      <c r="G493" s="0" t="n">
+        <v>2417</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -158,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G493"/>
+  <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A483" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I496" activeCellId="0" sqref="I496"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A484" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B495" activeCellId="0" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11500,6 +11500,29 @@
       </c>
       <c r="G493" s="0" t="n">
         <v>2417</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C494" s="0" t="n">
+        <v>2137</v>
+      </c>
+      <c r="D494" s="0" t="n">
+        <v>8461.5</v>
+      </c>
+      <c r="E494" s="0" t="n">
+        <v>2034.5</v>
+      </c>
+      <c r="F494" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G494" s="0" t="n">
+        <v>2507</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G494"/>
+  <dimension ref="A1:G495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11808,6 +11808,29 @@
         <v>2507</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C495" t="n">
+        <v>2196</v>
+      </c>
+      <c r="D495" t="n">
+        <v>8471</v>
+      </c>
+      <c r="E495" t="n">
+        <v>2055.5</v>
+      </c>
+      <c r="F495" t="n">
+        <v>16740</v>
+      </c>
+      <c r="G495" t="n">
+        <v>2524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G495"/>
+  <dimension ref="A1:G496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11831,6 +11831,29 @@
         <v>2524</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C496" t="n">
+        <v>2213</v>
+      </c>
+      <c r="D496" t="n">
+        <v>8423</v>
+      </c>
+      <c r="E496" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F496" t="n">
+        <v>16650</v>
+      </c>
+      <c r="G496" t="n">
+        <v>2549.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G496"/>
+  <dimension ref="A1:G497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11854,6 +11854,29 @@
         <v>2549.5</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2215.5</v>
+      </c>
+      <c r="D497" t="n">
+        <v>8439</v>
+      </c>
+      <c r="E497" t="n">
+        <v>2021.5</v>
+      </c>
+      <c r="F497" t="n">
+        <v>16460</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2556.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G497"/>
+  <dimension ref="A1:G498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11877,6 +11877,29 @@
         <v>2556.5</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2192</v>
+      </c>
+      <c r="D498" t="n">
+        <v>8466.5</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2045</v>
+      </c>
+      <c r="F498" t="n">
+        <v>16355</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2561.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G499"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11923,6 +11923,29 @@
         <v>2553.5</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C500" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="D500" t="n">
+        <v>8499</v>
+      </c>
+      <c r="E500" t="n">
+        <v>2040</v>
+      </c>
+      <c r="F500" t="n">
+        <v>16360</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -158,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A495" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B506" activeCellId="0" sqref="B506"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A491" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B505" activeCellId="0" sqref="B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11666,7 +11666,10 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11969,6 +11969,29 @@
         <v>2605.5</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C502" t="n">
+        <v>2313.5</v>
+      </c>
+      <c r="D502" t="n">
+        <v>8530</v>
+      </c>
+      <c r="E502" t="n">
+        <v>2054</v>
+      </c>
+      <c r="F502" t="n">
+        <v>16405</v>
+      </c>
+      <c r="G502" t="n">
+        <v>2620</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G502"/>
+  <dimension ref="A1:G503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11992,6 +11992,29 @@
         <v>2620</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C503" t="n">
+        <v>2335.5</v>
+      </c>
+      <c r="D503" t="n">
+        <v>8476</v>
+      </c>
+      <c r="E503" t="n">
+        <v>2031</v>
+      </c>
+      <c r="F503" t="n">
+        <v>16300</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2640.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G503"/>
+  <dimension ref="A1:G504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12015,6 +12015,29 @@
         <v>2640.5</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C504" t="n">
+        <v>2335.5</v>
+      </c>
+      <c r="D504" t="n">
+        <v>8476</v>
+      </c>
+      <c r="E504" t="n">
+        <v>2031</v>
+      </c>
+      <c r="F504" t="n">
+        <v>16300</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2640.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G504"/>
+  <dimension ref="A1:G505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12038,6 +12038,29 @@
         <v>2640.5</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C505" t="n">
+        <v>2335.5</v>
+      </c>
+      <c r="D505" t="n">
+        <v>8476</v>
+      </c>
+      <c r="E505" t="n">
+        <v>2031</v>
+      </c>
+      <c r="F505" t="n">
+        <v>16300</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2640.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12084,6 +12084,29 @@
         <v>2607</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C507" t="n">
+        <v>2255.5</v>
+      </c>
+      <c r="D507" t="n">
+        <v>8381</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F507" t="n">
+        <v>16210</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12020,7 +12020,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>45291</v>
+        <v>45293</v>
       </c>
       <c r="C504" t="n">
         <v>2335.5</v>
@@ -12046,19 +12046,19 @@
         <v>45293</v>
       </c>
       <c r="C505" t="n">
-        <v>2335.5</v>
+        <v>2336.5</v>
       </c>
       <c r="D505" t="n">
-        <v>8476</v>
+        <v>8430</v>
       </c>
       <c r="E505" t="n">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="F505" t="n">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="G505" t="n">
-        <v>2640.5</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="506">
@@ -12066,22 +12066,22 @@
         <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="C506" t="n">
-        <v>2336.5</v>
+        <v>2255.5</v>
       </c>
       <c r="D506" t="n">
-        <v>8430</v>
+        <v>8381</v>
       </c>
       <c r="E506" t="n">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="F506" t="n">
-        <v>16600</v>
+        <v>16210</v>
       </c>
       <c r="G506" t="n">
-        <v>2607</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="507">
@@ -12089,22 +12089,45 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="C507" t="n">
-        <v>2255.5</v>
+        <v>2235.5</v>
       </c>
       <c r="D507" t="n">
-        <v>8381</v>
+        <v>8375</v>
       </c>
       <c r="E507" t="n">
-        <v>2025</v>
+        <v>2012</v>
       </c>
       <c r="F507" t="n">
-        <v>16210</v>
+        <v>16025</v>
       </c>
       <c r="G507" t="n">
-        <v>2573</v>
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C508" t="n">
+        <v>2215.5</v>
+      </c>
+      <c r="D508" t="n">
+        <v>8346.5</v>
+      </c>
+      <c r="E508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F508" t="n">
+        <v>15705</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2514</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G508"/>
+  <dimension ref="A1:G509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12112,22 +12112,45 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="C508" t="n">
-        <v>2215.5</v>
+        <v>2205.5</v>
       </c>
       <c r="D508" t="n">
-        <v>8346.5</v>
+        <v>8295</v>
       </c>
       <c r="E508" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="F508" t="n">
-        <v>15705</v>
+        <v>15930</v>
       </c>
       <c r="G508" t="n">
-        <v>2514</v>
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C509" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="D509" t="n">
+        <v>8295</v>
+      </c>
+      <c r="E509" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F509" t="n">
+        <v>15930</v>
+      </c>
+      <c r="G509" t="n">
+        <v>2486</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G509"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12153,6 +12153,29 @@
         <v>2486</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C510" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D510" t="n">
+        <v>8301.5</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F510" t="n">
+        <v>16150</v>
+      </c>
+      <c r="G510" t="n">
+        <v>2503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12138,41 +12138,18 @@
         <v>45300</v>
       </c>
       <c r="C509" t="n">
-        <v>2205.5</v>
+        <v>2200</v>
       </c>
       <c r="D509" t="n">
-        <v>8295</v>
+        <v>8301.5</v>
       </c>
       <c r="E509" t="n">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="F509" t="n">
-        <v>15930</v>
+        <v>16150</v>
       </c>
       <c r="G509" t="n">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="C510" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D510" t="n">
-        <v>8301.5</v>
-      </c>
-      <c r="E510" t="n">
-        <v>2033</v>
-      </c>
-      <c r="F510" t="n">
-        <v>16150</v>
-      </c>
-      <c r="G510" t="n">
         <v>2503</v>
       </c>
     </row>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G509"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12153,6 +12153,29 @@
         <v>2503</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C510" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D510" t="n">
+        <v>8301.5</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F510" t="n">
+        <v>16150</v>
+      </c>
+      <c r="G510" t="n">
+        <v>2503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12199,6 +12199,29 @@
         <v>2508</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C512" t="n">
+        <v>2175</v>
+      </c>
+      <c r="D512" t="n">
+        <v>8289</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2058</v>
+      </c>
+      <c r="F512" t="n">
+        <v>16075</v>
+      </c>
+      <c r="G512" t="n">
+        <v>2480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G513"/>
+  <dimension ref="A1:G514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12245,6 +12245,29 @@
         <v>2535</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C514" t="n">
+        <v>2158.5</v>
+      </c>
+      <c r="D514" t="n">
+        <v>8280</v>
+      </c>
+      <c r="E514" t="n">
+        <v>2086</v>
+      </c>
+      <c r="F514" t="n">
+        <v>15880</v>
+      </c>
+      <c r="G514" t="n">
+        <v>2518.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G514"/>
+  <dimension ref="A1:G515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12268,6 +12268,27 @@
         <v>2518.5</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C515" t="n">
+        <v>2142</v>
+      </c>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F515" t="n">
+        <v>15765</v>
+      </c>
+      <c r="G515" t="n">
+        <v>2487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G515"/>
+  <dimension ref="A1:G516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12289,6 +12289,27 @@
         <v>2487</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C516" t="n">
+        <v>2130.5</v>
+      </c>
+      <c r="D516" t="n">
+        <v>8189</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="n">
+        <v>2440.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G516"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12310,6 +12310,29 @@
         <v>2440.5</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C517" t="n">
+        <v>2122</v>
+      </c>
+      <c r="D517" t="n">
+        <v>8275</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2077</v>
+      </c>
+      <c r="F517" t="n">
+        <v>15935</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G517"/>
+  <dimension ref="A1:G518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12333,6 +12333,29 @@
         <v>2459</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C518" t="n">
+        <v>2110</v>
+      </c>
+      <c r="D518" t="n">
+        <v>8254.5</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2087</v>
+      </c>
+      <c r="F518" t="n">
+        <v>15785</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2438.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G518"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12356,6 +12356,29 @@
         <v>2438.5</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C519" t="n">
+        <v>2145</v>
+      </c>
+      <c r="D519" t="n">
+        <v>8283.5</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2162</v>
+      </c>
+      <c r="F519" t="n">
+        <v>16010</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2496</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12402,6 +12402,29 @@
         <v>2564.5</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2188.5</v>
+      </c>
+      <c r="D521" t="n">
+        <v>8486</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2169</v>
+      </c>
+      <c r="F521" t="n">
+        <v>16360</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12425,6 +12425,29 @@
         <v>2595</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2212</v>
+      </c>
+      <c r="D522" t="n">
+        <v>8447</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2149</v>
+      </c>
+      <c r="F522" t="n">
+        <v>16535</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G522"/>
+  <dimension ref="A1:G523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12448,6 +12448,29 @@
         <v>2582</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2214</v>
+      </c>
+      <c r="D523" t="n">
+        <v>8421</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F523" t="n">
+        <v>16285</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G523"/>
+  <dimension ref="A1:G524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12430,7 +12430,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>45318</v>
+        <v>45317</v>
       </c>
       <c r="C522" t="n">
         <v>2212</v>
@@ -12453,7 +12453,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="C523" t="n">
         <v>2214</v>
@@ -12469,6 +12469,29 @@
       </c>
       <c r="G523" t="n">
         <v>2566</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2226.5</v>
+      </c>
+      <c r="D524" t="n">
+        <v>8462</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2165</v>
+      </c>
+      <c r="F524" t="n">
+        <v>16150</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2546</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G524"/>
+  <dimension ref="A1:G525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12494,6 +12494,29 @@
         <v>2546</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C525" t="n">
+        <v>2232</v>
+      </c>
+      <c r="D525" t="n">
+        <v>8513</v>
+      </c>
+      <c r="E525" t="n">
+        <v>2173</v>
+      </c>
+      <c r="F525" t="n">
+        <v>16070</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2551.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G525"/>
+  <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12517,6 +12517,29 @@
         <v>2551.5</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2212.5</v>
+      </c>
+      <c r="D526" t="n">
+        <v>8437</v>
+      </c>
+      <c r="E526" t="n">
+        <v>2162</v>
+      </c>
+      <c r="F526" t="n">
+        <v>15985</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G526"/>
+  <dimension ref="A1:G527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12540,6 +12540,29 @@
         <v>2478</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2209.5</v>
+      </c>
+      <c r="D527" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E527" t="n">
+        <v>2145.5</v>
+      </c>
+      <c r="F527" t="n">
+        <v>16125</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G528"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12586,6 +12586,29 @@
         <v>2419</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2184.5</v>
+      </c>
+      <c r="D529" t="n">
+        <v>8280</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2119</v>
+      </c>
+      <c r="F529" t="n">
+        <v>15620</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12609,6 +12609,29 @@
         <v>2417</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C530" t="n">
+        <v>2195.5</v>
+      </c>
+      <c r="D530" t="n">
+        <v>8280.5</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2119</v>
+      </c>
+      <c r="F530" t="n">
+        <v>15680</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12632,6 +12632,29 @@
         <v>2401</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C531" t="n">
+        <v>2214.5</v>
+      </c>
+      <c r="D531" t="n">
+        <v>8202</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2099</v>
+      </c>
+      <c r="F531" t="n">
+        <v>15755</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G531"/>
+  <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12655,6 +12655,29 @@
         <v>2374</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C532" t="n">
+        <v>2180.5</v>
+      </c>
+      <c r="D532" t="n">
+        <v>8091.5</v>
+      </c>
+      <c r="E532" t="n">
+        <v>2050</v>
+      </c>
+      <c r="F532" t="n">
+        <v>15725</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G532"/>
+  <dimension ref="A1:G533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12678,6 +12678,29 @@
         <v>2322</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C533" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D533" t="n">
+        <v>8085.5</v>
+      </c>
+      <c r="E533" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F533" t="n">
+        <v>15755</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:G536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12747,6 +12747,29 @@
         <v>2285.5</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D536" t="n">
+        <v>8153</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2057</v>
+      </c>
+      <c r="F536" t="n">
+        <v>16240</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2321.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G536"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12770,6 +12770,29 @@
         <v>2321.5</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C537" t="n">
+        <v>2203</v>
+      </c>
+      <c r="D537" t="n">
+        <v>8322</v>
+      </c>
+      <c r="E537" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F537" t="n">
+        <v>16090</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G537"/>
+  <dimension ref="A1:G538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12793,6 +12793,29 @@
         <v>2342</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C538" t="n">
+        <v>2185</v>
+      </c>
+      <c r="D538" t="n">
+        <v>8364.5</v>
+      </c>
+      <c r="E538" t="n">
+        <v>2044.5</v>
+      </c>
+      <c r="F538" t="n">
+        <v>16175</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12862,6 +12862,29 @@
         <v>2360</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C541" t="n">
+        <v>2178.5</v>
+      </c>
+      <c r="D541" t="n">
+        <v>8482</v>
+      </c>
+      <c r="E541" t="n">
+        <v>2085</v>
+      </c>
+      <c r="F541" t="n">
+        <v>16985</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12885,6 +12885,29 @@
         <v>2358</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C542" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D542" t="n">
+        <v>8442.5</v>
+      </c>
+      <c r="E542" t="n">
+        <v>2097</v>
+      </c>
+      <c r="F542" t="n">
+        <v>17180</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2348.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G543"/>
+  <dimension ref="A1:G544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12931,6 +12931,29 @@
         <v>2380</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C544" t="n">
+        <v>2146</v>
+      </c>
+      <c r="D544" t="n">
+        <v>8396.5</v>
+      </c>
+      <c r="E544" t="n">
+        <v>2113</v>
+      </c>
+      <c r="F544" t="n">
+        <v>17075</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G544"/>
+  <dimension ref="A1:G545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12954,6 +12954,29 @@
         <v>2398</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C545" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D545" t="n">
+        <v>8340.5</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2090</v>
+      </c>
+      <c r="F545" t="n">
+        <v>17140</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G545"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12977,6 +12977,29 @@
         <v>2342</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C546" t="n">
+        <v>2163</v>
+      </c>
+      <c r="D546" t="n">
+        <v>8389</v>
+      </c>
+      <c r="E546" t="n">
+        <v>2067</v>
+      </c>
+      <c r="F546" t="n">
+        <v>17435</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G546"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13000,6 +13000,29 @@
         <v>2382</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C547" t="n">
+        <v>2183.5</v>
+      </c>
+      <c r="D547" t="n">
+        <v>8394</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2052.5</v>
+      </c>
+      <c r="F547" t="n">
+        <v>17175</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2362.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13023,6 +13023,29 @@
         <v>2362.5</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C548" t="n">
+        <v>2182.5</v>
+      </c>
+      <c r="D548" t="n">
+        <v>8437</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2028</v>
+      </c>
+      <c r="F548" t="n">
+        <v>17575</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G548"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13046,6 +13046,29 @@
         <v>2393</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C549" t="n">
+        <v>2191.5</v>
+      </c>
+      <c r="D549" t="n">
+        <v>8429.5</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F549" t="n">
+        <v>17600</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G549"/>
+  <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13069,6 +13069,29 @@
         <v>2418</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C550" t="n">
+        <v>2187.5</v>
+      </c>
+      <c r="D550" t="n">
+        <v>8441</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2060</v>
+      </c>
+      <c r="F550" t="n">
+        <v>17475</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G550"/>
+  <dimension ref="A1:G551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13092,6 +13092,29 @@
         <v>2446</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C551" t="n">
+        <v>2210</v>
+      </c>
+      <c r="D551" t="n">
+        <v>8559</v>
+      </c>
+      <c r="E551" t="n">
+        <v>2107</v>
+      </c>
+      <c r="F551" t="n">
+        <v>17660</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G551"/>
+  <dimension ref="A1:G552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13115,6 +13115,29 @@
         <v>2495</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C552" t="n">
+        <v>2209</v>
+      </c>
+      <c r="D552" t="n">
+        <v>8552.5</v>
+      </c>
+      <c r="E552" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F552" t="n">
+        <v>17845</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2501.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G552"/>
+  <dimension ref="A1:G553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13138,6 +13138,29 @@
         <v>2501.5</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C553" t="n">
+        <v>2209</v>
+      </c>
+      <c r="D553" t="n">
+        <v>8552.5</v>
+      </c>
+      <c r="E553" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F553" t="n">
+        <v>17845</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2501.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G553"/>
+  <dimension ref="A1:G554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13161,6 +13161,29 @@
         <v>2501.5</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C554" t="n">
+        <v>2202</v>
+      </c>
+      <c r="D554" t="n">
+        <v>8522</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2113</v>
+      </c>
+      <c r="F554" t="n">
+        <v>17910</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G554"/>
+  <dimension ref="A1:G555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13184,6 +13184,29 @@
         <v>2516</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C555" t="n">
+        <v>2213.5</v>
+      </c>
+      <c r="D555" t="n">
+        <v>8566</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F555" t="n">
+        <v>18135</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G555"/>
+  <dimension ref="A1:G556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13207,6 +13207,29 @@
         <v>2535</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C556" t="n">
+        <v>2224</v>
+      </c>
+      <c r="D556" t="n">
+        <v>8727</v>
+      </c>
+      <c r="E556" t="n">
+        <v>2164</v>
+      </c>
+      <c r="F556" t="n">
+        <v>18165</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13230,6 +13230,29 @@
         <v>2524</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C557" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D557" t="n">
+        <v>8791.5</v>
+      </c>
+      <c r="E557" t="n">
+        <v>2142</v>
+      </c>
+      <c r="F557" t="n">
+        <v>17755</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2519.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G557"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13253,6 +13253,29 @@
         <v>2519.5</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C558" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="D558" t="n">
+        <v>8906.5</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2107</v>
+      </c>
+      <c r="F558" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G559"/>
+  <dimension ref="A1:G560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13299,6 +13299,29 @@
         <v>2515.5</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C560" t="n">
+        <v>2202.5</v>
+      </c>
+      <c r="D560" t="n">
+        <v>8875</v>
+      </c>
+      <c r="E560" t="n">
+        <v>2042</v>
+      </c>
+      <c r="F560" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G560"/>
+  <dimension ref="A1:G561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13322,6 +13322,29 @@
         <v>2467</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C561" t="n">
+        <v>2231.5</v>
+      </c>
+      <c r="D561" t="n">
+        <v>8790</v>
+      </c>
+      <c r="E561" t="n">
+        <v>2015.5</v>
+      </c>
+      <c r="F561" t="n">
+        <v>17300</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13414,6 +13414,29 @@
         <v>2437</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C565" t="n">
+        <v>2275.5</v>
+      </c>
+      <c r="D565" t="n">
+        <v>8764</v>
+      </c>
+      <c r="E565" t="n">
+        <v>1982.5</v>
+      </c>
+      <c r="F565" t="n">
+        <v>16565</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G565"/>
+  <dimension ref="A1:G566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13437,6 +13437,29 @@
         <v>2425</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C566" t="n">
+        <v>2238</v>
+      </c>
+      <c r="D566" t="n">
+        <v>8696</v>
+      </c>
+      <c r="E566" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F566" t="n">
+        <v>16330</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G566"/>
+  <dimension ref="A1:G567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13460,6 +13460,29 @@
         <v>2366</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C567" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D567" t="n">
+        <v>8729</v>
+      </c>
+      <c r="E567" t="n">
+        <v>1965</v>
+      </c>
+      <c r="F567" t="n">
+        <v>16530</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G567"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13483,6 +13483,29 @@
         <v>2391</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C568" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D568" t="n">
+        <v>8729</v>
+      </c>
+      <c r="E568" t="n">
+        <v>1965</v>
+      </c>
+      <c r="F568" t="n">
+        <v>16530</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -333,13 +333,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G569"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A556" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D573" activeCellId="0" sqref="D573"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A555" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B572" activeCellId="0" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -13373,13 +13376,9 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
-    </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="1"/>
-      <c r="B569" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G568"/>
+  <dimension ref="A1:G569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13506,6 +13506,29 @@
         <v>2437</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C569" t="n">
+        <v>2334</v>
+      </c>
+      <c r="D569" t="n">
+        <v>8932</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F569" t="n">
+        <v>16870</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2430</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G569"/>
+  <dimension ref="A1:G570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13529,6 +13529,29 @@
         <v>2430</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C570" t="n">
+        <v>2394.5</v>
+      </c>
+      <c r="D570" t="n">
+        <v>9257</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2084.5</v>
+      </c>
+      <c r="F570" t="n">
+        <v>17230</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2551.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G570"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13552,6 +13552,29 @@
         <v>2551.5</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C571" t="n">
+        <v>2391</v>
+      </c>
+      <c r="D571" t="n">
+        <v>9198</v>
+      </c>
+      <c r="E571" t="n">
+        <v>2091</v>
+      </c>
+      <c r="F571" t="n">
+        <v>17475</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2587.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G571"/>
+  <dimension ref="A1:G572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13575,6 +13575,19 @@
         <v>2587.5</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/LME_db.xlsx
+++ b/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G572"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13588,6 +13588,19 @@
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
     </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
